--- a/Project Management/REQ_SRS.xlsx
+++ b/Project Management/REQ_SRS.xlsx
@@ -436,61 +436,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -712,15 +712,15 @@
   </sheetPr>
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" customWidth="1"/>
-    <col min="3" max="3" width="57.109375" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="82.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -758,13 +758,13 @@
       <c r="Z1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1"/>
@@ -792,11 +792,11 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="1"/>
@@ -824,11 +824,11 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1"/>
@@ -856,11 +856,11 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="1"/>
@@ -888,11 +888,11 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1"/>
@@ -920,11 +920,11 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="1"/>
@@ -952,11 +952,11 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="1"/>
@@ -984,11 +984,11 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="1"/>
@@ -1016,11 +1016,11 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="1"/>
@@ -1048,11 +1048,11 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="25"/>
+      <c r="B11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="1"/>
@@ -1080,11 +1080,11 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1"/>
@@ -1112,11 +1112,11 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="25"/>
+      <c r="B13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="1"/>
@@ -1144,13 +1144,13 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="18" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2"/>
@@ -1178,11 +1178,11 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="25"/>
+      <c r="B15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2"/>
@@ -1210,11 +1210,11 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="18" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2"/>
@@ -1242,11 +1242,11 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="18" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="2"/>
@@ -1274,11 +1274,11 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="2"/>
@@ -1306,13 +1306,13 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="7"/>
@@ -1340,11 +1340,11 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="23" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="7"/>
@@ -1372,11 +1372,11 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="23" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="20" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="7"/>
@@ -1404,11 +1404,11 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="28"/>
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="20" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="7"/>
@@ -1436,11 +1436,11 @@
       <c r="Z22" s="7"/>
     </row>
     <row r="23" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D23" s="7"/>
@@ -1468,11 +1468,11 @@
       <c r="Z23" s="7"/>
     </row>
     <row r="24" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="7"/>
@@ -1500,11 +1500,11 @@
       <c r="Z24" s="7"/>
     </row>
     <row r="25" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="8"/>
@@ -1532,11 +1532,11 @@
       <c r="Z25" s="7"/>
     </row>
     <row r="26" spans="1:26" s="4" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="23" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="8"/>
@@ -1564,13 +1564,13 @@
       <c r="Z26" s="7"/>
     </row>
     <row r="27" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="22" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="9"/>
@@ -1598,11 +1598,11 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="27" t="s">
+      <c r="A28" s="30"/>
+      <c r="B28" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="22" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="9"/>
@@ -1630,11 +1630,11 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="27" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="22" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="9"/>
@@ -1662,11 +1662,11 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="27" t="s">
+      <c r="A30" s="30"/>
+      <c r="B30" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="22" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="9"/>
@@ -1694,11 +1694,11 @@
       <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="27" t="s">
+      <c r="A31" s="30"/>
+      <c r="B31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D31" s="9"/>
@@ -1726,11 +1726,11 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="27" t="s">
+      <c r="A32" s="30"/>
+      <c r="B32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="22" t="s">
         <v>65</v>
       </c>
       <c r="D32" s="9"/>
@@ -1758,13 +1758,13 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:25" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="23" t="s">
         <v>68</v>
       </c>
       <c r="D33" s="3"/>
